--- a/experimental_design/Design.xlsx
+++ b/experimental_design/Design.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25928"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\delia\OneDrive\Desktop\Morphemes\Morphemes\Experimental Design\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C0766C8-1733-4CC7-884F-21E0647583B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Design" sheetId="1" r:id="rId1"/>
@@ -18,12 +12,12 @@
     <sheet name="Roots" sheetId="3" r:id="rId3"/>
     <sheet name="Suffixes" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="116">
   <si>
     <t>Token</t>
   </si>
@@ -97,25 +91,28 @@
     <t>ChangedIndexS2</t>
   </si>
   <si>
-    <t>rerg</t>
-  </si>
-  <si>
-    <t>unegah</t>
-  </si>
-  <si>
-    <t>ehuable</t>
-  </si>
-  <si>
-    <t>derergion</t>
-  </si>
-  <si>
-    <t>deprehidad</t>
-  </si>
-  <si>
-    <t>gagefulable</t>
-  </si>
-  <si>
-    <t>insopioner</t>
+    <t>reh</t>
+  </si>
+  <si>
+    <t>dehuc</t>
+  </si>
+  <si>
+    <t>cehidful</t>
+  </si>
+  <si>
+    <t>precehider</t>
+  </si>
+  <si>
+    <t>deprereh</t>
+  </si>
+  <si>
+    <t>irsableful</t>
+  </si>
+  <si>
+    <t>deifufulable</t>
+  </si>
+  <si>
+    <t>inunifuion</t>
   </si>
   <si>
     <t>r</t>
@@ -145,28 +142,31 @@
     <t>de</t>
   </si>
   <si>
+    <t>in</t>
+  </si>
+  <si>
+    <t>pre</t>
+  </si>
+  <si>
     <t>un</t>
   </si>
   <si>
-    <t>pre</t>
-  </si>
-  <si>
-    <t>in</t>
-  </si>
-  <si>
-    <t>egah</t>
-  </si>
-  <si>
-    <t>ehu</t>
-  </si>
-  <si>
-    <t>hidad</t>
-  </si>
-  <si>
-    <t>gage</t>
-  </si>
-  <si>
-    <t>sop</t>
+    <t>huc</t>
+  </si>
+  <si>
+    <t>cehid</t>
+  </si>
+  <si>
+    <t>irs</t>
+  </si>
+  <si>
+    <t>ifu</t>
+  </si>
+  <si>
+    <t>ful</t>
+  </si>
+  <si>
+    <t>er</t>
   </si>
   <si>
     <t>able</t>
@@ -175,151 +175,148 @@
     <t>ion</t>
   </si>
   <si>
-    <t>ful</t>
-  </si>
-  <si>
-    <t>er</t>
-  </si>
-  <si>
-    <t>rreg</t>
-  </si>
-  <si>
-    <t>nuegha</t>
-  </si>
-  <si>
-    <t>uehleba</t>
-  </si>
-  <si>
-    <t>edrgreoin</t>
-  </si>
-  <si>
-    <t>ederpddhia</t>
-  </si>
-  <si>
-    <t>ggaelfuelba</t>
-  </si>
-  <si>
-    <t>niospoinre</t>
-  </si>
-  <si>
-    <t>edniaheglabe</t>
+    <t>ehr</t>
+  </si>
+  <si>
+    <t>educh</t>
+  </si>
+  <si>
+    <t>hidceufl</t>
+  </si>
+  <si>
+    <t>erpedhcire</t>
+  </si>
+  <si>
+    <t>edeprhre</t>
+  </si>
+  <si>
+    <t>rsilebaufl</t>
+  </si>
+  <si>
+    <t>eduiflfuabel</t>
+  </si>
+  <si>
+    <t>ninuiufoni</t>
   </si>
   <si>
     <t>ed</t>
   </si>
   <si>
+    <t>ni</t>
+  </si>
+  <si>
+    <t>erp</t>
+  </si>
+  <si>
+    <t>epr</t>
+  </si>
+  <si>
     <t>nu</t>
   </si>
   <si>
-    <t>erp</t>
-  </si>
-  <si>
-    <t>ni</t>
-  </si>
-  <si>
-    <t>egha</t>
-  </si>
-  <si>
-    <t>ueh</t>
-  </si>
-  <si>
-    <t>rgre</t>
-  </si>
-  <si>
-    <t>ddhia</t>
-  </si>
-  <si>
-    <t>ggae</t>
-  </si>
-  <si>
-    <t>osp</t>
-  </si>
-  <si>
-    <t>aheg</t>
+    <t>uch</t>
+  </si>
+  <si>
+    <t>hidce</t>
+  </si>
+  <si>
+    <t>edhci</t>
+  </si>
+  <si>
+    <t>hre</t>
+  </si>
+  <si>
+    <t>rsi</t>
+  </si>
+  <si>
+    <t>uif</t>
+  </si>
+  <si>
+    <t>iuf</t>
+  </si>
+  <si>
+    <t>ufl</t>
+  </si>
+  <si>
+    <t>re</t>
   </si>
   <si>
     <t>leba</t>
   </si>
   <si>
-    <t>oin</t>
-  </si>
-  <si>
     <t>lfu</t>
   </si>
   <si>
-    <t>labe</t>
-  </si>
-  <si>
-    <t>elba</t>
-  </si>
-  <si>
-    <t>re</t>
-  </si>
-  <si>
-    <t>seprehidad</t>
-  </si>
-  <si>
-    <t>dainegahable</t>
-  </si>
-  <si>
-    <t>ulegah</t>
-  </si>
-  <si>
-    <t>durergion</t>
-  </si>
-  <si>
-    <t>deprohidad</t>
-  </si>
-  <si>
-    <t>onsopioner</t>
-  </si>
-  <si>
-    <t>deanegahable</t>
-  </si>
-  <si>
-    <t>rirg</t>
-  </si>
-  <si>
-    <t>unegad</t>
-  </si>
-  <si>
-    <t>ihuable</t>
-  </si>
-  <si>
-    <t>derercion</t>
-  </si>
-  <si>
-    <t>deprehidid</t>
-  </si>
-  <si>
-    <t>gigefulable</t>
-  </si>
-  <si>
-    <t>ingopioner</t>
-  </si>
-  <si>
-    <t>deinogahable</t>
-  </si>
-  <si>
-    <t>ehuabla</t>
-  </si>
-  <si>
-    <t>derergian</t>
-  </si>
-  <si>
-    <t>gagegulable</t>
-  </si>
-  <si>
-    <t>insopianer</t>
-  </si>
-  <si>
-    <t>deinegahablu</t>
-  </si>
-  <si>
-    <t>gagefulabla</t>
-  </si>
-  <si>
-    <t>insopionem</t>
+    <t>oni</t>
+  </si>
+  <si>
+    <t>abel</t>
+  </si>
+  <si>
+    <t>teprereh</t>
+  </si>
+  <si>
+    <t>irunifuion</t>
+  </si>
+  <si>
+    <t>dohuc</t>
+  </si>
+  <si>
+    <t>pricehider</t>
+  </si>
+  <si>
+    <t>depmereh</t>
+  </si>
+  <si>
+    <t>doifufulable</t>
+  </si>
+  <si>
+    <t>inonifuion</t>
+  </si>
+  <si>
+    <t>meh</t>
+  </si>
+  <si>
+    <t>dehac</t>
+  </si>
+  <si>
+    <t>cahidful</t>
+  </si>
+  <si>
+    <t>precehiter</t>
+  </si>
+  <si>
+    <t>deprerih</t>
+  </si>
+  <si>
+    <t>ijsableful</t>
+  </si>
+  <si>
+    <t>deisufulable</t>
+  </si>
+  <si>
+    <t>inunifaion</t>
+  </si>
+  <si>
+    <t>cehidfil</t>
+  </si>
+  <si>
+    <t>precehidur</t>
+  </si>
+  <si>
+    <t>irsagleful</t>
+  </si>
+  <si>
+    <t>deifuculable</t>
+  </si>
+  <si>
+    <t>inunifuior</t>
+  </si>
+  <si>
+    <t>irsablefol</t>
+  </si>
+  <si>
+    <t>deifufulablo</t>
   </si>
   <si>
     <t>Prefix</t>
@@ -328,22 +325,28 @@
     <t>PrefixPOS</t>
   </si>
   <si>
+    <t>PrefixPOS2</t>
+  </si>
+  <si>
     <t>PrefixFrequency</t>
   </si>
   <si>
     <t>all</t>
   </si>
   <si>
-    <t>emso</t>
-  </si>
-  <si>
-    <t>els</t>
-  </si>
-  <si>
-    <t>yot</t>
-  </si>
-  <si>
-    <t>ter</t>
+    <t>bogi</t>
+  </si>
+  <si>
+    <t>otos</t>
+  </si>
+  <si>
+    <t>olva</t>
+  </si>
+  <si>
+    <t>yemd</t>
+  </si>
+  <si>
+    <t>tar</t>
   </si>
   <si>
     <t>Suffix</t>
@@ -352,6 +355,9 @@
     <t>SuffixPOS</t>
   </si>
   <si>
+    <t>SuffixPOS2</t>
+  </si>
+  <si>
     <t>SuffixFrequency</t>
   </si>
   <si>
@@ -359,19 +365,13 @@
   </si>
   <si>
     <t>adjective</t>
-  </si>
-  <si>
-    <t>PrefixPOS2</t>
-  </si>
-  <si>
-    <t>SuffixPOS2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -434,14 +434,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -488,7 +480,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -520,27 +512,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -572,24 +546,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -765,14 +721,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:X9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -846,18 +802,18 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:24">
       <c r="A2" t="s">
         <v>24</v>
       </c>
       <c r="B2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E2" t="s">
         <v>24</v>
       </c>
       <c r="H2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I2" t="s">
         <v>52</v>
@@ -866,156 +822,156 @@
         <v>52</v>
       </c>
       <c r="Q2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="V2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D3" t="s">
         <v>40</v>
       </c>
       <c r="E3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I3" t="s">
         <v>53</v>
       </c>
       <c r="K3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="P3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Q3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="U3">
         <v>1</v>
       </c>
       <c r="V3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24">
       <c r="A4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
         <v>48</v>
       </c>
       <c r="H4">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I4" t="s">
         <v>54</v>
       </c>
       <c r="L4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="M4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Q4" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="R4" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="V4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24">
       <c r="A5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D5" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="E5" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
         <v>49</v>
       </c>
       <c r="H5">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="I5" t="s">
         <v>55</v>
       </c>
       <c r="K5" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="L5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="M5" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="P5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Q5" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="R5" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="U5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="W5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24">
       <c r="A6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E6" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="H6">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I6" t="s">
         <v>56</v>
@@ -1024,36 +980,36 @@
         <v>60</v>
       </c>
       <c r="K6" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="O6" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P6" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Q6" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="T6">
         <v>0</v>
       </c>
       <c r="U6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24">
       <c r="A7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E7" t="s">
         <v>46</v>
@@ -1071,113 +1027,113 @@
         <v>57</v>
       </c>
       <c r="L7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="M7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="N7" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="Q7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="R7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="S7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="V7">
         <v>1</v>
       </c>
       <c r="W7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24">
       <c r="A8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E8" t="s">
         <v>47</v>
       </c>
       <c r="F8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H8">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I8" t="s">
         <v>58</v>
       </c>
       <c r="K8" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="L8" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="M8" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="N8" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P8" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Q8" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="R8" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="S8" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="U8">
+        <v>1</v>
+      </c>
+      <c r="V8">
+        <v>1</v>
+      </c>
+      <c r="W8">
         <v>0</v>
       </c>
-      <c r="V8">
-        <v>0</v>
-      </c>
-      <c r="W8">
-        <v>1</v>
-      </c>
       <c r="X8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24">
       <c r="A9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C9" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E9" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="F9" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="H9">
         <v>10</v>
@@ -1186,28 +1142,28 @@
         <v>59</v>
       </c>
       <c r="J9" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K9" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L9" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="M9" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="O9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="P9" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="Q9" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="R9" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="T9">
         <v>1</v>
@@ -1216,10 +1172,10 @@
         <v>0</v>
       </c>
       <c r="V9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W9">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -1228,83 +1184,78 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="2" width="13.6640625" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D2">
         <v>0.35</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B3" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C3" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D3">
         <v>0.25</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B4" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C4" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D4">
         <v>0.2</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B5" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C5" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D5">
         <v>0.2</v>
@@ -1316,66 +1267,66 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1">
       <c r="A2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
       <c r="A6" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
       <c r="A9" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -1384,80 +1335,78 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="C2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="D2">
         <v>0.35</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B3" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="C3" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="D3">
         <v>0.25</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B4" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="C4" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="D4">
         <v>0.2</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B5" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="C5" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="D5">
         <v>0.2</v>

--- a/experimental_design/Design.xlsx
+++ b/experimental_design/Design.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="115">
   <si>
     <t>Token</t>
   </si>
@@ -91,28 +91,28 @@
     <t>ChangedIndexS2</t>
   </si>
   <si>
-    <t>reh</t>
-  </si>
-  <si>
-    <t>dehuc</t>
-  </si>
-  <si>
-    <t>cehidful</t>
-  </si>
-  <si>
-    <t>precehider</t>
-  </si>
-  <si>
-    <t>deprereh</t>
-  </si>
-  <si>
-    <t>irsableful</t>
-  </si>
-  <si>
-    <t>deifufulable</t>
-  </si>
-  <si>
-    <t>inunifuion</t>
+    <t>sar</t>
+  </si>
+  <si>
+    <t>presetet</t>
+  </si>
+  <si>
+    <t>seteter</t>
+  </si>
+  <si>
+    <t>desetetful</t>
+  </si>
+  <si>
+    <t>uninsut</t>
+  </si>
+  <si>
+    <t>owkiableful</t>
+  </si>
+  <si>
+    <t>deawtioner</t>
+  </si>
+  <si>
+    <t>predemetful</t>
   </si>
   <si>
     <t>r</t>
@@ -139,64 +139,76 @@
     <t>pprs</t>
   </si>
   <si>
+    <t>un</t>
+  </si>
+  <si>
+    <t>pre</t>
+  </si>
+  <si>
     <t>de</t>
   </si>
   <si>
     <t>in</t>
   </si>
   <si>
-    <t>pre</t>
-  </si>
-  <si>
-    <t>un</t>
-  </si>
-  <si>
-    <t>huc</t>
-  </si>
-  <si>
-    <t>cehid</t>
-  </si>
-  <si>
-    <t>irs</t>
-  </si>
-  <si>
-    <t>ifu</t>
+    <t>setet</t>
+  </si>
+  <si>
+    <t>sut</t>
+  </si>
+  <si>
+    <t>owki</t>
+  </si>
+  <si>
+    <t>awt</t>
+  </si>
+  <si>
+    <t>met</t>
+  </si>
+  <si>
+    <t>er</t>
   </si>
   <si>
     <t>ful</t>
   </si>
   <si>
-    <t>er</t>
-  </si>
-  <si>
     <t>able</t>
   </si>
   <si>
     <t>ion</t>
   </si>
   <si>
-    <t>ehr</t>
-  </si>
-  <si>
-    <t>educh</t>
-  </si>
-  <si>
-    <t>hidceufl</t>
-  </si>
-  <si>
-    <t>erpedhcire</t>
-  </si>
-  <si>
-    <t>edeprhre</t>
-  </si>
-  <si>
-    <t>rsilebaufl</t>
-  </si>
-  <si>
-    <t>eduiflfuabel</t>
-  </si>
-  <si>
-    <t>ninuiufoni</t>
+    <t>asr</t>
+  </si>
+  <si>
+    <t>erpstete</t>
+  </si>
+  <si>
+    <t>etsetre</t>
+  </si>
+  <si>
+    <t>edtsetelfu</t>
+  </si>
+  <si>
+    <t>nunitsu</t>
+  </si>
+  <si>
+    <t>ikowblaeulf</t>
+  </si>
+  <si>
+    <t>edwatoinre</t>
+  </si>
+  <si>
+    <t>rpeedtemlfu</t>
+  </si>
+  <si>
+    <t>nu</t>
+  </si>
+  <si>
+    <t>rpe</t>
+  </si>
+  <si>
+    <t>erp</t>
   </si>
   <si>
     <t>ed</t>
@@ -205,118 +217,106 @@
     <t>ni</t>
   </si>
   <si>
-    <t>erp</t>
-  </si>
-  <si>
-    <t>epr</t>
-  </si>
-  <si>
-    <t>nu</t>
-  </si>
-  <si>
-    <t>uch</t>
-  </si>
-  <si>
-    <t>hidce</t>
-  </si>
-  <si>
-    <t>edhci</t>
-  </si>
-  <si>
-    <t>hre</t>
-  </si>
-  <si>
-    <t>rsi</t>
-  </si>
-  <si>
-    <t>uif</t>
-  </si>
-  <si>
-    <t>iuf</t>
-  </si>
-  <si>
-    <t>ufl</t>
+    <t>stete</t>
+  </si>
+  <si>
+    <t>etset</t>
+  </si>
+  <si>
+    <t>tsete</t>
+  </si>
+  <si>
+    <t>tsu</t>
+  </si>
+  <si>
+    <t>ikow</t>
+  </si>
+  <si>
+    <t>wat</t>
+  </si>
+  <si>
+    <t>tem</t>
   </si>
   <si>
     <t>re</t>
   </si>
   <si>
-    <t>leba</t>
-  </si>
-  <si>
     <t>lfu</t>
   </si>
   <si>
-    <t>oni</t>
-  </si>
-  <si>
-    <t>abel</t>
-  </si>
-  <si>
-    <t>teprereh</t>
-  </si>
-  <si>
-    <t>irunifuion</t>
-  </si>
-  <si>
-    <t>dohuc</t>
-  </si>
-  <si>
-    <t>pricehider</t>
-  </si>
-  <si>
-    <t>depmereh</t>
-  </si>
-  <si>
-    <t>doifufulable</t>
-  </si>
-  <si>
-    <t>inonifuion</t>
-  </si>
-  <si>
-    <t>meh</t>
-  </si>
-  <si>
-    <t>dehac</t>
-  </si>
-  <si>
-    <t>cahidful</t>
-  </si>
-  <si>
-    <t>precehiter</t>
-  </si>
-  <si>
-    <t>deprerih</t>
-  </si>
-  <si>
-    <t>ijsableful</t>
-  </si>
-  <si>
-    <t>deisufulable</t>
-  </si>
-  <si>
-    <t>inunifaion</t>
-  </si>
-  <si>
-    <t>cehidfil</t>
-  </si>
-  <si>
-    <t>precehidur</t>
-  </si>
-  <si>
-    <t>irsagleful</t>
-  </si>
-  <si>
-    <t>deifuculable</t>
-  </si>
-  <si>
-    <t>inunifuior</t>
-  </si>
-  <si>
-    <t>irsablefol</t>
-  </si>
-  <si>
-    <t>deifufulablo</t>
+    <t>blae</t>
+  </si>
+  <si>
+    <t>oin</t>
+  </si>
+  <si>
+    <t>ulf</t>
+  </si>
+  <si>
+    <t>ulinsut</t>
+  </si>
+  <si>
+    <t>tredemetful</t>
+  </si>
+  <si>
+    <t>sresetet</t>
+  </si>
+  <si>
+    <t>dosetetful</t>
+  </si>
+  <si>
+    <t>unilsut</t>
+  </si>
+  <si>
+    <t>seawtioner</t>
+  </si>
+  <si>
+    <t>predametful</t>
+  </si>
+  <si>
+    <t>sam</t>
+  </si>
+  <si>
+    <t>presotet</t>
+  </si>
+  <si>
+    <t>teteter</t>
+  </si>
+  <si>
+    <t>degetetful</t>
+  </si>
+  <si>
+    <t>uninset</t>
+  </si>
+  <si>
+    <t>iwkiableful</t>
+  </si>
+  <si>
+    <t>deiwtioner</t>
+  </si>
+  <si>
+    <t>predemotful</t>
+  </si>
+  <si>
+    <t>setetor</t>
+  </si>
+  <si>
+    <t>desetetfuy</t>
+  </si>
+  <si>
+    <t>owkiebleful</t>
+  </si>
+  <si>
+    <t>deawtiorer</t>
+  </si>
+  <si>
+    <t>predemetfel</t>
+  </si>
+  <si>
+    <t>owkiablefur</t>
+  </si>
+  <si>
+    <t>deawtionew</t>
   </si>
   <si>
     <t>Prefix</t>
@@ -334,19 +334,16 @@
     <t>all</t>
   </si>
   <si>
-    <t>bogi</t>
-  </si>
-  <si>
-    <t>otos</t>
-  </si>
-  <si>
-    <t>olva</t>
-  </si>
-  <si>
-    <t>yemd</t>
-  </si>
-  <si>
-    <t>tar</t>
+    <t>upi</t>
+  </si>
+  <si>
+    <t>boha</t>
+  </si>
+  <si>
+    <t>eget</t>
+  </si>
+  <si>
+    <t>rers</t>
   </si>
   <si>
     <t>Suffix</t>
@@ -816,16 +813,16 @@
         <v>3</v>
       </c>
       <c r="I2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="Q2" t="s">
         <v>85</v>
       </c>
       <c r="V2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:24">
@@ -836,22 +833,22 @@
         <v>33</v>
       </c>
       <c r="D3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E3" t="s">
         <v>44</v>
       </c>
       <c r="H3">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K3" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="L3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="P3" t="s">
         <v>80</v>
@@ -860,7 +857,7 @@
         <v>86</v>
       </c>
       <c r="U3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V3">
         <v>1</v>
@@ -874,22 +871,22 @@
         <v>34</v>
       </c>
       <c r="E4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H4">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="M4" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Q4" t="s">
         <v>87</v>
@@ -898,10 +895,10 @@
         <v>93</v>
       </c>
       <c r="V4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:24">
@@ -915,25 +912,25 @@
         <v>42</v>
       </c>
       <c r="E5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H5">
         <v>10</v>
       </c>
       <c r="I5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="M5" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P5" t="s">
         <v>81</v>
@@ -945,13 +942,13 @@
         <v>94</v>
       </c>
       <c r="U5">
+        <v>1</v>
+      </c>
+      <c r="V5">
+        <v>0</v>
+      </c>
+      <c r="W5">
         <v>2</v>
-      </c>
-      <c r="V5">
-        <v>4</v>
-      </c>
-      <c r="W5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:24">
@@ -965,25 +962,25 @@
         <v>40</v>
       </c>
       <c r="D6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E6" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="H6">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K6" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="L6" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="O6" t="s">
         <v>78</v>
@@ -995,7 +992,7 @@
         <v>89</v>
       </c>
       <c r="T6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U6">
         <v>1</v>
@@ -1015,25 +1012,25 @@
         <v>46</v>
       </c>
       <c r="F7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G7" t="s">
         <v>50</v>
       </c>
-      <c r="G7" t="s">
-        <v>48</v>
-      </c>
       <c r="H7">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="L7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="M7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="N7" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="Q7" t="s">
         <v>90</v>
@@ -1045,13 +1042,13 @@
         <v>98</v>
       </c>
       <c r="V7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X7">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:24">
@@ -1062,34 +1059,34 @@
         <v>38</v>
       </c>
       <c r="D8" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E8" t="s">
         <v>47</v>
       </c>
       <c r="F8" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="G8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H8">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K8" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="L8" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="M8" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="N8" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="P8" t="s">
         <v>83</v>
@@ -1104,16 +1101,16 @@
         <v>99</v>
       </c>
       <c r="U8">
+        <v>0</v>
+      </c>
+      <c r="V8">
+        <v>0</v>
+      </c>
+      <c r="W8">
+        <v>2</v>
+      </c>
+      <c r="X8">
         <v>1</v>
-      </c>
-      <c r="V8">
-        <v>1</v>
-      </c>
-      <c r="W8">
-        <v>0</v>
-      </c>
-      <c r="X8">
-        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:24">
@@ -1127,31 +1124,31 @@
         <v>41</v>
       </c>
       <c r="D9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H9">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I9" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="J9" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K9" t="s">
         <v>64</v>
       </c>
       <c r="L9" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="M9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="O9" t="s">
         <v>79</v>
@@ -1166,16 +1163,16 @@
         <v>97</v>
       </c>
       <c r="T9">
+        <v>0</v>
+      </c>
+      <c r="U9">
         <v>1</v>
       </c>
-      <c r="U9">
-        <v>0</v>
-      </c>
       <c r="V9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W9">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1207,7 +1204,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B2" t="s">
         <v>104</v>
@@ -1221,7 +1218,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B3" t="s">
         <v>104</v>
@@ -1235,7 +1232,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B4" t="s">
         <v>104</v>
@@ -1249,7 +1246,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B5" t="s">
         <v>104</v>
@@ -1281,37 +1278,37 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>47</v>
+        <v>105</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>107</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:1">
@@ -1321,12 +1318,12 @@
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>109</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -1344,27 +1341,27 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>112</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D2">
         <v>0.35</v>
@@ -1372,13 +1369,13 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D3">
         <v>0.25</v>
@@ -1386,13 +1383,13 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D4">
         <v>0.2</v>
@@ -1403,10 +1400,10 @@
         <v>49</v>
       </c>
       <c r="B5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D5">
         <v>0.2</v>

--- a/experimental_design/Design.xlsx
+++ b/experimental_design/Design.xlsx
@@ -91,28 +91,28 @@
     <t>ChangedIndexS2</t>
   </si>
   <si>
-    <t>sar</t>
-  </si>
-  <si>
-    <t>presetet</t>
-  </si>
-  <si>
-    <t>seteter</t>
-  </si>
-  <si>
-    <t>desetetful</t>
-  </si>
-  <si>
-    <t>uninsut</t>
-  </si>
-  <si>
-    <t>owkiableful</t>
-  </si>
-  <si>
-    <t>deawtioner</t>
-  </si>
-  <si>
-    <t>predemetful</t>
+    <t>rerg</t>
+  </si>
+  <si>
+    <t>unegah</t>
+  </si>
+  <si>
+    <t>ehuable</t>
+  </si>
+  <si>
+    <t>derergion</t>
+  </si>
+  <si>
+    <t>deprehidad</t>
+  </si>
+  <si>
+    <t>gagefulable</t>
+  </si>
+  <si>
+    <t>insopioner</t>
+  </si>
+  <si>
+    <t>deinegahable</t>
   </si>
   <si>
     <t>r</t>
@@ -139,184 +139,184 @@
     <t>pprs</t>
   </si>
   <si>
+    <t>de</t>
+  </si>
+  <si>
     <t>un</t>
   </si>
   <si>
     <t>pre</t>
   </si>
   <si>
-    <t>de</t>
-  </si>
-  <si>
     <t>in</t>
   </si>
   <si>
-    <t>setet</t>
-  </si>
-  <si>
-    <t>sut</t>
-  </si>
-  <si>
-    <t>owki</t>
-  </si>
-  <si>
-    <t>awt</t>
-  </si>
-  <si>
-    <t>met</t>
+    <t>egah</t>
+  </si>
+  <si>
+    <t>ehu</t>
+  </si>
+  <si>
+    <t>hidad</t>
+  </si>
+  <si>
+    <t>gage</t>
+  </si>
+  <si>
+    <t>sop</t>
+  </si>
+  <si>
+    <t>able</t>
+  </si>
+  <si>
+    <t>ion</t>
+  </si>
+  <si>
+    <t>ful</t>
   </si>
   <si>
     <t>er</t>
   </si>
   <si>
-    <t>ful</t>
-  </si>
-  <si>
-    <t>able</t>
-  </si>
-  <si>
-    <t>ion</t>
-  </si>
-  <si>
-    <t>asr</t>
-  </si>
-  <si>
-    <t>erpstete</t>
-  </si>
-  <si>
-    <t>etsetre</t>
-  </si>
-  <si>
-    <t>edtsetelfu</t>
-  </si>
-  <si>
-    <t>nunitsu</t>
-  </si>
-  <si>
-    <t>ikowblaeulf</t>
-  </si>
-  <si>
-    <t>edwatoinre</t>
-  </si>
-  <si>
-    <t>rpeedtemlfu</t>
+    <t>rreg</t>
+  </si>
+  <si>
+    <t>nuegha</t>
+  </si>
+  <si>
+    <t>uehleba</t>
+  </si>
+  <si>
+    <t>edrgreoin</t>
+  </si>
+  <si>
+    <t>ederpddhia</t>
+  </si>
+  <si>
+    <t>ggaelfuelba</t>
+  </si>
+  <si>
+    <t>niospoinre</t>
+  </si>
+  <si>
+    <t>edniaheglabe</t>
+  </si>
+  <si>
+    <t>ed</t>
   </si>
   <si>
     <t>nu</t>
   </si>
   <si>
-    <t>rpe</t>
-  </si>
-  <si>
     <t>erp</t>
   </si>
   <si>
-    <t>ed</t>
-  </si>
-  <si>
     <t>ni</t>
   </si>
   <si>
-    <t>stete</t>
-  </si>
-  <si>
-    <t>etset</t>
-  </si>
-  <si>
-    <t>tsete</t>
-  </si>
-  <si>
-    <t>tsu</t>
-  </si>
-  <si>
-    <t>ikow</t>
-  </si>
-  <si>
-    <t>wat</t>
-  </si>
-  <si>
-    <t>tem</t>
+    <t>egha</t>
+  </si>
+  <si>
+    <t>ueh</t>
+  </si>
+  <si>
+    <t>rgre</t>
+  </si>
+  <si>
+    <t>ddhia</t>
+  </si>
+  <si>
+    <t>ggae</t>
+  </si>
+  <si>
+    <t>osp</t>
+  </si>
+  <si>
+    <t>aheg</t>
+  </si>
+  <si>
+    <t>leba</t>
+  </si>
+  <si>
+    <t>oin</t>
+  </si>
+  <si>
+    <t>lfu</t>
+  </si>
+  <si>
+    <t>labe</t>
+  </si>
+  <si>
+    <t>elba</t>
   </si>
   <si>
     <t>re</t>
   </si>
   <si>
-    <t>lfu</t>
-  </si>
-  <si>
-    <t>blae</t>
-  </si>
-  <si>
-    <t>oin</t>
-  </si>
-  <si>
-    <t>ulf</t>
-  </si>
-  <si>
-    <t>ulinsut</t>
-  </si>
-  <si>
-    <t>tredemetful</t>
-  </si>
-  <si>
-    <t>sresetet</t>
-  </si>
-  <si>
-    <t>dosetetful</t>
-  </si>
-  <si>
-    <t>unilsut</t>
-  </si>
-  <si>
-    <t>seawtioner</t>
-  </si>
-  <si>
-    <t>predametful</t>
-  </si>
-  <si>
-    <t>sam</t>
-  </si>
-  <si>
-    <t>presotet</t>
-  </si>
-  <si>
-    <t>teteter</t>
-  </si>
-  <si>
-    <t>degetetful</t>
-  </si>
-  <si>
-    <t>uninset</t>
-  </si>
-  <si>
-    <t>iwkiableful</t>
-  </si>
-  <si>
-    <t>deiwtioner</t>
-  </si>
-  <si>
-    <t>predemotful</t>
-  </si>
-  <si>
-    <t>setetor</t>
-  </si>
-  <si>
-    <t>desetetfuy</t>
-  </si>
-  <si>
-    <t>owkiebleful</t>
-  </si>
-  <si>
-    <t>deawtiorer</t>
-  </si>
-  <si>
-    <t>predemetfel</t>
-  </si>
-  <si>
-    <t>owkiablefur</t>
-  </si>
-  <si>
-    <t>deawtionew</t>
+    <t>seprehidad</t>
+  </si>
+  <si>
+    <t>dainegahable</t>
+  </si>
+  <si>
+    <t>ulegah</t>
+  </si>
+  <si>
+    <t>durergion</t>
+  </si>
+  <si>
+    <t>deprohidad</t>
+  </si>
+  <si>
+    <t>onsopioner</t>
+  </si>
+  <si>
+    <t>deanegahable</t>
+  </si>
+  <si>
+    <t>rirg</t>
+  </si>
+  <si>
+    <t>unegad</t>
+  </si>
+  <si>
+    <t>ihuable</t>
+  </si>
+  <si>
+    <t>derercion</t>
+  </si>
+  <si>
+    <t>deprehidid</t>
+  </si>
+  <si>
+    <t>gigefulable</t>
+  </si>
+  <si>
+    <t>ingopioner</t>
+  </si>
+  <si>
+    <t>deinogahable</t>
+  </si>
+  <si>
+    <t>ehuabla</t>
+  </si>
+  <si>
+    <t>derergian</t>
+  </si>
+  <si>
+    <t>gagegulable</t>
+  </si>
+  <si>
+    <t>insopianer</t>
+  </si>
+  <si>
+    <t>deinegahablu</t>
+  </si>
+  <si>
+    <t>gagefulabla</t>
+  </si>
+  <si>
+    <t>insopionem</t>
   </si>
   <si>
     <t>Prefix</t>
@@ -334,16 +334,16 @@
     <t>all</t>
   </si>
   <si>
-    <t>upi</t>
-  </si>
-  <si>
-    <t>boha</t>
-  </si>
-  <si>
-    <t>eget</t>
-  </si>
-  <si>
-    <t>rers</t>
+    <t>emso</t>
+  </si>
+  <si>
+    <t>els</t>
+  </si>
+  <si>
+    <t>yot</t>
+  </si>
+  <si>
+    <t>ter</t>
   </si>
   <si>
     <t>Suffix</t>
@@ -810,7 +810,7 @@
         <v>24</v>
       </c>
       <c r="H2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I2" t="s">
         <v>53</v>
@@ -822,7 +822,7 @@
         <v>85</v>
       </c>
       <c r="V2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:24">
@@ -839,16 +839,16 @@
         <v>44</v>
       </c>
       <c r="H3">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I3" t="s">
         <v>54</v>
       </c>
       <c r="K3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="P3" t="s">
         <v>80</v>
@@ -857,10 +857,10 @@
         <v>86</v>
       </c>
       <c r="U3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V3">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:24">
@@ -871,7 +871,7 @@
         <v>34</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
         <v>49</v>
@@ -883,10 +883,10 @@
         <v>55</v>
       </c>
       <c r="L4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="Q4" t="s">
         <v>87</v>
@@ -898,7 +898,7 @@
         <v>0</v>
       </c>
       <c r="W4">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:24">
@@ -909,28 +909,28 @@
         <v>35</v>
       </c>
       <c r="D5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="F5" t="s">
         <v>50</v>
       </c>
       <c r="H5">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I5" t="s">
         <v>56</v>
       </c>
       <c r="K5" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="L5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="M5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="P5" t="s">
         <v>81</v>
@@ -945,10 +945,10 @@
         <v>1</v>
       </c>
       <c r="V5">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W5">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:24">
@@ -962,13 +962,13 @@
         <v>40</v>
       </c>
       <c r="D6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H6">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="I6" t="s">
         <v>57</v>
@@ -977,10 +977,10 @@
         <v>61</v>
       </c>
       <c r="K6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="L6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="O6" t="s">
         <v>78</v>
@@ -992,13 +992,13 @@
         <v>89</v>
       </c>
       <c r="T6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V6">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:24">
@@ -1009,13 +1009,13 @@
         <v>37</v>
       </c>
       <c r="E7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F7" t="s">
         <v>51</v>
       </c>
       <c r="G7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H7">
         <v>11</v>
@@ -1024,13 +1024,13 @@
         <v>58</v>
       </c>
       <c r="L7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="M7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="N7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Q7" t="s">
         <v>90</v>
@@ -1042,13 +1042,13 @@
         <v>98</v>
       </c>
       <c r="V7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W7">
         <v>0</v>
       </c>
       <c r="X7">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:24">
@@ -1059,16 +1059,16 @@
         <v>38</v>
       </c>
       <c r="D8" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F8" t="s">
+        <v>50</v>
+      </c>
+      <c r="G8" t="s">
         <v>52</v>
-      </c>
-      <c r="G8" t="s">
-        <v>49</v>
       </c>
       <c r="H8">
         <v>10</v>
@@ -1080,13 +1080,13 @@
         <v>64</v>
       </c>
       <c r="L8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M8" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="N8" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="P8" t="s">
         <v>83</v>
@@ -1107,7 +1107,7 @@
         <v>0</v>
       </c>
       <c r="W8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X8">
         <v>1</v>
@@ -1121,34 +1121,34 @@
         <v>39</v>
       </c>
       <c r="C9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E9" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H9">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I9" t="s">
         <v>60</v>
       </c>
       <c r="J9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K9" t="s">
         <v>64</v>
       </c>
       <c r="L9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="M9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="O9" t="s">
         <v>79</v>
@@ -1163,16 +1163,16 @@
         <v>97</v>
       </c>
       <c r="T9">
+        <v>1</v>
+      </c>
+      <c r="U9">
         <v>0</v>
       </c>
-      <c r="U9">
-        <v>1</v>
-      </c>
       <c r="V9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W9">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -1204,7 +1204,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B2" t="s">
         <v>104</v>
@@ -1218,7 +1218,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B3" t="s">
         <v>104</v>
@@ -1246,7 +1246,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B5" t="s">
         <v>104</v>
@@ -1278,52 +1278,52 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>105</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>106</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>107</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>46</v>
+        <v>105</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>47</v>
+        <v>106</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>108</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>48</v>
+        <v>107</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -1355,7 +1355,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B2" t="s">
         <v>113</v>
@@ -1369,7 +1369,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B3" t="s">
         <v>114</v>
@@ -1383,7 +1383,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B4" t="s">
         <v>114</v>
@@ -1397,7 +1397,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B5" t="s">
         <v>113</v>

--- a/experimental_design/Design.xlsx
+++ b/experimental_design/Design.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="116">
   <si>
     <t>Token</t>
   </si>
@@ -178,28 +178,28 @@
     <t>er</t>
   </si>
   <si>
-    <t>rreg</t>
-  </si>
-  <si>
-    <t>nuegha</t>
-  </si>
-  <si>
-    <t>uehleba</t>
-  </si>
-  <si>
-    <t>edrgreoin</t>
-  </si>
-  <si>
-    <t>ederpddhia</t>
-  </si>
-  <si>
-    <t>ggaelfuelba</t>
-  </si>
-  <si>
-    <t>niospoinre</t>
-  </si>
-  <si>
-    <t>edniaheglabe</t>
+    <t>regr</t>
+  </si>
+  <si>
+    <t>nuahge</t>
+  </si>
+  <si>
+    <t>uheealb</t>
+  </si>
+  <si>
+    <t>edgreroin</t>
+  </si>
+  <si>
+    <t>ederpdhiad</t>
+  </si>
+  <si>
+    <t>geagflualeb</t>
+  </si>
+  <si>
+    <t>nipsoinore</t>
+  </si>
+  <si>
+    <t>ednigheaelab</t>
   </si>
   <si>
     <t>ed</t>
@@ -214,106 +214,109 @@
     <t>ni</t>
   </si>
   <si>
-    <t>egha</t>
-  </si>
-  <si>
-    <t>ueh</t>
-  </si>
-  <si>
-    <t>rgre</t>
-  </si>
-  <si>
-    <t>ddhia</t>
-  </si>
-  <si>
-    <t>ggae</t>
-  </si>
-  <si>
-    <t>osp</t>
-  </si>
-  <si>
-    <t>aheg</t>
-  </si>
-  <si>
-    <t>leba</t>
+    <t>ahge</t>
+  </si>
+  <si>
+    <t>uhe</t>
+  </si>
+  <si>
+    <t>grer</t>
+  </si>
+  <si>
+    <t>dhiad</t>
+  </si>
+  <si>
+    <t>geag</t>
+  </si>
+  <si>
+    <t>pso</t>
+  </si>
+  <si>
+    <t>ghea</t>
+  </si>
+  <si>
+    <t>ealb</t>
   </si>
   <si>
     <t>oin</t>
   </si>
   <si>
-    <t>lfu</t>
-  </si>
-  <si>
-    <t>labe</t>
-  </si>
-  <si>
-    <t>elba</t>
+    <t>flu</t>
+  </si>
+  <si>
+    <t>ino</t>
+  </si>
+  <si>
+    <t>elab</t>
+  </si>
+  <si>
+    <t>aleb</t>
   </si>
   <si>
     <t>re</t>
   </si>
   <si>
-    <t>seprehidad</t>
-  </si>
-  <si>
-    <t>dainegahable</t>
+    <t>daprehidad</t>
+  </si>
+  <si>
+    <t>teinegahable</t>
   </si>
   <si>
     <t>ulegah</t>
   </si>
   <si>
-    <t>durergion</t>
-  </si>
-  <si>
-    <t>deprohidad</t>
-  </si>
-  <si>
-    <t>onsopioner</t>
-  </si>
-  <si>
-    <t>deanegahable</t>
-  </si>
-  <si>
-    <t>rirg</t>
-  </si>
-  <si>
-    <t>unegad</t>
-  </si>
-  <si>
-    <t>ihuable</t>
-  </si>
-  <si>
-    <t>derercion</t>
-  </si>
-  <si>
-    <t>deprehidid</t>
-  </si>
-  <si>
-    <t>gigefulable</t>
-  </si>
-  <si>
-    <t>ingopioner</t>
-  </si>
-  <si>
-    <t>deinogahable</t>
-  </si>
-  <si>
-    <t>ehuabla</t>
-  </si>
-  <si>
-    <t>derergian</t>
-  </si>
-  <si>
-    <t>gagegulable</t>
-  </si>
-  <si>
-    <t>insopianer</t>
-  </si>
-  <si>
-    <t>deinegahablu</t>
-  </si>
-  <si>
-    <t>gagefulabla</t>
+    <t>darergion</t>
+  </si>
+  <si>
+    <t>deprihidad</t>
+  </si>
+  <si>
+    <t>ensopioner</t>
+  </si>
+  <si>
+    <t>deiregahable</t>
+  </si>
+  <si>
+    <t>relg</t>
+  </si>
+  <si>
+    <t>unesah</t>
+  </si>
+  <si>
+    <t>eduable</t>
+  </si>
+  <si>
+    <t>dererbion</t>
+  </si>
+  <si>
+    <t>deprehidod</t>
+  </si>
+  <si>
+    <t>gagifulable</t>
+  </si>
+  <si>
+    <t>insapioner</t>
+  </si>
+  <si>
+    <t>deinegatable</t>
+  </si>
+  <si>
+    <t>ehuabne</t>
+  </si>
+  <si>
+    <t>derergaon</t>
+  </si>
+  <si>
+    <t>gagefurable</t>
+  </si>
+  <si>
+    <t>insopiomer</t>
+  </si>
+  <si>
+    <t>deinegahabme</t>
+  </si>
+  <si>
+    <t>gagefuloble</t>
   </si>
   <si>
     <t>insopionem</t>
@@ -819,10 +822,10 @@
         <v>53</v>
       </c>
       <c r="Q2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="V2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:24">
@@ -851,16 +854,16 @@
         <v>65</v>
       </c>
       <c r="P3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Q3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="U3">
         <v>1</v>
       </c>
       <c r="V3">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:24">
@@ -889,16 +892,16 @@
         <v>72</v>
       </c>
       <c r="Q4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="R4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="V4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W4">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:24">
@@ -933,13 +936,13 @@
         <v>73</v>
       </c>
       <c r="P5" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Q5" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="R5" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="U5">
         <v>1</v>
@@ -948,7 +951,7 @@
         <v>3</v>
       </c>
       <c r="W5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:24">
@@ -983,16 +986,16 @@
         <v>68</v>
       </c>
       <c r="O6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="P6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Q6" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="T6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U6">
         <v>2</v>
@@ -1030,25 +1033,25 @@
         <v>74</v>
       </c>
       <c r="N7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="R7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="S7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="V7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W7">
+        <v>2</v>
+      </c>
+      <c r="X7">
         <v>0</v>
-      </c>
-      <c r="X7">
-        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:24">
@@ -1083,31 +1086,31 @@
         <v>70</v>
       </c>
       <c r="M8" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="N8" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P8" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="Q8" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="R8" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="S8" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="U8">
         <v>0</v>
       </c>
       <c r="V8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X8">
         <v>1</v>
@@ -1148,31 +1151,31 @@
         <v>71</v>
       </c>
       <c r="M9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="O9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="P9" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="Q9" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="R9" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="T9">
+        <v>0</v>
+      </c>
+      <c r="U9">
         <v>1</v>
       </c>
-      <c r="U9">
-        <v>0</v>
-      </c>
       <c r="V9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W9">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -1190,16 +1193,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1207,10 +1210,10 @@
         <v>40</v>
       </c>
       <c r="B2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D2">
         <v>0.35</v>
@@ -1221,10 +1224,10 @@
         <v>42</v>
       </c>
       <c r="B3" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C3" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D3">
         <v>0.25</v>
@@ -1235,10 +1238,10 @@
         <v>43</v>
       </c>
       <c r="B4" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C4" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D4">
         <v>0.2</v>
@@ -1249,10 +1252,10 @@
         <v>41</v>
       </c>
       <c r="B5" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C5" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D5">
         <v>0.2</v>
@@ -1303,12 +1306,12 @@
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="9" spans="1:1">
@@ -1318,12 +1321,12 @@
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -1341,16 +1344,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1358,10 +1361,10 @@
         <v>50</v>
       </c>
       <c r="B2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D2">
         <v>0.35</v>
@@ -1372,10 +1375,10 @@
         <v>51</v>
       </c>
       <c r="B3" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C3" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D3">
         <v>0.25</v>
@@ -1386,10 +1389,10 @@
         <v>49</v>
       </c>
       <c r="B4" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C4" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D4">
         <v>0.2</v>
@@ -1400,10 +1403,10 @@
         <v>52</v>
       </c>
       <c r="B5" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C5" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D5">
         <v>0.2</v>
